--- a/Outputs/5. Budget constrained/Output Files/1000000/Output_21_32.xlsx
+++ b/Outputs/5. Budget constrained/Output Files/1000000/Output_21_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2262815.704151749</v>
+        <v>2260359.489488184</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673436</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9338206.629922865</v>
+        <v>9338206.629922867</v>
       </c>
     </row>
     <row r="11">
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>335.758705044888</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>318.297755152415</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>307.7079050020904</v>
@@ -1379,13 +1379,13 @@
         <v>334.9552334536692</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G11" t="n">
         <v>363.9465890348609</v>
       </c>
       <c r="H11" t="n">
-        <v>247.6326277687279</v>
+        <v>191.7549174328576</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U11" t="n">
         <v>204.0200353403094</v>
       </c>
       <c r="V11" t="n">
-        <v>149.8993191320992</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W11" t="n">
         <v>302.2658320988205</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1534,19 +1534,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E13" t="n">
-        <v>99.45882602797663</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F13" t="n">
-        <v>98.4459114043387</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G13" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H13" t="n">
-        <v>97.77987829572824</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I13" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S13" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T13" t="n">
         <v>172.5738126575766</v>
@@ -1616,13 +1616,13 @@
         <v>334.9552334536692</v>
       </c>
       <c r="F14" t="n">
-        <v>359.9009091231189</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>363.9465890348609</v>
       </c>
       <c r="H14" t="n">
-        <v>22.49561442740668</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,16 +1655,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>62.21262516958329</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T14" t="n">
         <v>156.9428335210276</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W14" t="n">
         <v>302.2658320988205</v>
@@ -1673,7 +1673,7 @@
         <v>322.7559640598765</v>
       </c>
       <c r="Y14" t="n">
-        <v>339.262802037461</v>
+        <v>236.8621683961342</v>
       </c>
     </row>
     <row r="15">
@@ -1701,10 +1701,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1765,25 +1765,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C16" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D16" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E16" t="n">
-        <v>99.45882602797663</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F16" t="n">
-        <v>98.4459114043387</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G16" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H16" t="n">
-        <v>97.77987829572824</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I16" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S16" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T16" t="n">
         <v>172.5738126575766</v>
@@ -1844,7 +1844,7 @@
         <v>314.5096953211453</v>
       </c>
       <c r="C17" t="n">
-        <v>202.6145033416152</v>
+        <v>110.9843290728829</v>
       </c>
       <c r="D17" t="n">
         <v>286.4588952783477</v>
@@ -1859,7 +1859,7 @@
         <v>342.6975793111181</v>
       </c>
       <c r="H17" t="n">
-        <v>226.3836180449852</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>40.96361544584056</v>
+        <v>40.96361544584053</v>
       </c>
       <c r="T17" t="n">
         <v>135.6938237972848</v>
@@ -1910,7 +1910,7 @@
         <v>301.5069543361337</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>318.0137923137183</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1941,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824781</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,10 +1968,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S18" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T18" t="n">
         <v>190.7165703189231</v>
@@ -2020,7 +2020,7 @@
         <v>76.53086857198549</v>
       </c>
       <c r="I19" t="n">
-        <v>28.12827406750281</v>
+        <v>28.12827406750279</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>20.70800632771204</v>
+        <v>20.70800632771203</v>
       </c>
       <c r="S19" t="n">
         <v>121.5448789891066</v>
@@ -2093,7 +2093,7 @@
         <v>338.6518993993761</v>
       </c>
       <c r="G20" t="n">
-        <v>342.6975793111181</v>
+        <v>231.7564992464774</v>
       </c>
       <c r="H20" t="n">
         <v>226.3836180449852</v>
@@ -2135,16 +2135,16 @@
         <v>135.6938237972848</v>
       </c>
       <c r="U20" t="n">
-        <v>29.85110334359203</v>
+        <v>182.7710256165667</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>259.5281121277996</v>
       </c>
       <c r="W20" t="n">
         <v>281.0168223750777</v>
       </c>
       <c r="X20" t="n">
-        <v>301.5069543361337</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>318.0137923137183</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>40.96361544584056</v>
+        <v>40.96361544584053</v>
       </c>
       <c r="T23" t="n">
         <v>135.6938237972848</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2570,7 +2570,7 @@
         <v>363.9465890348609</v>
       </c>
       <c r="H26" t="n">
-        <v>247.6326277687279</v>
+        <v>247.6326277687281</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958327</v>
       </c>
       <c r="T26" t="n">
         <v>156.9428335210276</v>
@@ -2652,7 +2652,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247752</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.2126251695837</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T29" t="n">
         <v>156.9428335210276</v>
@@ -2889,7 +2889,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247752</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2950,25 +2950,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C31" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D31" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E31" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F31" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G31" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H31" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124551</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95701605145474</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S31" t="n">
         <v>142.7938887128493</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.21262516958325</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T32" t="n">
         <v>156.9428335210276</v>
@@ -3126,7 +3126,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247752</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,10 +3153,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T33" t="n">
         <v>190.7165703189231</v>
@@ -3205,7 +3205,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S34" t="n">
         <v>142.7938887128493</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3424,13 +3424,13 @@
         <v>82.14725995383242</v>
       </c>
       <c r="C37" t="n">
-        <v>69.56210087052295</v>
+        <v>111.7690391349161</v>
       </c>
       <c r="D37" t="n">
-        <v>50.93075279010748</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>48.74924241846429</v>
       </c>
       <c r="F37" t="n">
         <v>47.73632779482637</v>
@@ -3472,10 +3472,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>92.08430510333702</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>164.0711673124573</v>
+        <v>121.8642290480643</v>
       </c>
       <c r="U37" t="n">
         <v>188.527117977508</v>
@@ -3490,7 +3490,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>120.8999331239899</v>
       </c>
     </row>
     <row r="38">
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>11.50304156007094</v>
+        <v>11.50304156007095</v>
       </c>
       <c r="T38" t="n">
         <v>106.2332499115153</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>82.1472599538324</v>
+        <v>82.14725995383242</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>69.56210087052295</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>50.93075279010748</v>
       </c>
       <c r="E40" t="n">
-        <v>48.74924241846428</v>
+        <v>48.74924241846429</v>
       </c>
       <c r="F40" t="n">
-        <v>47.73632779482635</v>
+        <v>47.73632779482637</v>
       </c>
       <c r="G40" t="n">
-        <v>68.34108803092333</v>
+        <v>68.34108803092334</v>
       </c>
       <c r="H40" t="n">
-        <v>90.6095327688756</v>
+        <v>99.3621003269338</v>
       </c>
       <c r="I40" t="n">
         <v>96.35242040983809</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>92.084305103337</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
         <v>121.8642290480643</v>
       </c>
       <c r="U40" t="n">
-        <v>188.527117977508</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
         <v>154.4529230957231</v>
@@ -3727,7 +3727,7 @@
         <v>128.0249351609323</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>120.8999331239899</v>
       </c>
     </row>
     <row r="41">
@@ -3743,16 +3743,16 @@
         <v>293.3142984377525</v>
       </c>
       <c r="D41" t="n">
-        <v>282.7244482874279</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>309.9717767390067</v>
       </c>
       <c r="F41" t="n">
-        <v>334.9174524084564</v>
+        <v>257.4761241679863</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>338.9631323201984</v>
       </c>
       <c r="H41" t="n">
         <v>222.6491710540654</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>16.02652424722056</v>
+        <v>37.2291684549208</v>
       </c>
       <c r="T41" t="n">
         <v>131.9593768063651</v>
@@ -3797,7 +3797,7 @@
         <v>179.0365786256469</v>
       </c>
       <c r="V41" t="n">
-        <v>255.7936651368798</v>
+        <v>255.7936651368799</v>
       </c>
       <c r="W41" t="n">
         <v>277.2823753841579</v>
@@ -3806,7 +3806,7 @@
         <v>297.772507345214</v>
       </c>
       <c r="Y41" t="n">
-        <v>314.2793453227985</v>
+        <v>314.2793453227986</v>
       </c>
     </row>
     <row r="42">
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>107.8733868486822</v>
+        <v>107.8733868486823</v>
       </c>
       <c r="C43" t="n">
-        <v>95.28822776537278</v>
+        <v>95.2882277653728</v>
       </c>
       <c r="D43" t="n">
-        <v>76.6568796849573</v>
+        <v>76.65687968495732</v>
       </c>
       <c r="E43" t="n">
-        <v>74.47536931331412</v>
+        <v>74.47536931331413</v>
       </c>
       <c r="F43" t="n">
-        <v>73.46245468967619</v>
+        <v>73.46245468967621</v>
       </c>
       <c r="G43" t="n">
-        <v>94.06721492577317</v>
+        <v>94.06721492577319</v>
       </c>
       <c r="H43" t="n">
-        <v>72.79642158106573</v>
+        <v>72.79642158106574</v>
       </c>
       <c r="I43" t="n">
-        <v>24.39382707658304</v>
+        <v>24.39382707658306</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>16.97355933679228</v>
+        <v>16.97355933679229</v>
       </c>
       <c r="S43" t="n">
-        <v>117.8104319981868</v>
+        <v>149.2230882337265</v>
       </c>
       <c r="T43" t="n">
-        <v>147.5903559429141</v>
+        <v>147.5903559429142</v>
       </c>
       <c r="U43" t="n">
         <v>214.2532448723578</v>
       </c>
       <c r="V43" t="n">
-        <v>211.5917062261127</v>
+        <v>180.179049990573</v>
       </c>
       <c r="W43" t="n">
-        <v>214.5644050033359</v>
+        <v>214.564405003336</v>
       </c>
       <c r="X43" t="n">
         <v>153.7510620557821</v>
       </c>
       <c r="Y43" t="n">
-        <v>146.6260600188397</v>
+        <v>146.6260600188398</v>
       </c>
     </row>
     <row r="44">
@@ -3974,16 +3974,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>310.7752483302255</v>
       </c>
       <c r="C44" t="n">
-        <v>243.9237702400798</v>
+        <v>293.3142984377525</v>
       </c>
       <c r="D44" t="n">
         <v>282.7244482874279</v>
       </c>
       <c r="E44" t="n">
-        <v>309.9717767390067</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>334.9174524084564</v>
@@ -3992,7 +3992,7 @@
         <v>338.9631323201984</v>
       </c>
       <c r="H44" t="n">
-        <v>222.6491710540654</v>
+        <v>172.4551712651734</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4034,7 +4034,7 @@
         <v>179.0365786256469</v>
       </c>
       <c r="V44" t="n">
-        <v>255.7936651368798</v>
+        <v>255.7936651368799</v>
       </c>
       <c r="W44" t="n">
         <v>277.2823753841579</v>
@@ -4043,7 +4043,7 @@
         <v>297.772507345214</v>
       </c>
       <c r="Y44" t="n">
-        <v>314.2793453227985</v>
+        <v>314.2793453227986</v>
       </c>
     </row>
     <row r="45">
@@ -4074,7 +4074,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>107.8733868486822</v>
+        <v>107.8733868486823</v>
       </c>
       <c r="C46" t="n">
-        <v>95.28822776537278</v>
+        <v>95.2882277653728</v>
       </c>
       <c r="D46" t="n">
-        <v>76.6568796849573</v>
+        <v>76.65687968495732</v>
       </c>
       <c r="E46" t="n">
-        <v>74.47536931331412</v>
+        <v>74.47536931331413</v>
       </c>
       <c r="F46" t="n">
-        <v>73.46245468967619</v>
+        <v>73.46245468967621</v>
       </c>
       <c r="G46" t="n">
-        <v>94.06721492577317</v>
+        <v>94.06721492577319</v>
       </c>
       <c r="H46" t="n">
-        <v>72.79642158106573</v>
+        <v>72.79642158106574</v>
       </c>
       <c r="I46" t="n">
-        <v>24.39382707658304</v>
+        <v>24.39382707658306</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>16.97355933679228</v>
+        <v>16.97355933679229</v>
       </c>
       <c r="S46" t="n">
-        <v>117.8104319981868</v>
+        <v>117.8104319981869</v>
       </c>
       <c r="T46" t="n">
-        <v>147.5903559429141</v>
+        <v>147.5903559429142</v>
       </c>
       <c r="U46" t="n">
-        <v>245.6659011078976</v>
+        <v>214.2532448723578</v>
       </c>
       <c r="V46" t="n">
-        <v>180.1790499905729</v>
+        <v>180.179049990573</v>
       </c>
       <c r="W46" t="n">
-        <v>214.5644050033359</v>
+        <v>214.564405003336</v>
       </c>
       <c r="X46" t="n">
-        <v>153.7510620557821</v>
+        <v>185.163718291322</v>
       </c>
       <c r="Y46" t="n">
-        <v>146.6260600188397</v>
+        <v>146.6260600188398</v>
       </c>
     </row>
   </sheetData>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1654.936470383461</v>
+        <v>1640.517726580261</v>
       </c>
       <c r="C11" t="n">
-        <v>1333.423586391122</v>
+        <v>1640.517726580261</v>
       </c>
       <c r="D11" t="n">
-        <v>1022.607520732445</v>
+        <v>1329.701660921584</v>
       </c>
       <c r="E11" t="n">
-        <v>684.2689010822733</v>
+        <v>991.3630412714131</v>
       </c>
       <c r="F11" t="n">
-        <v>684.2689010822733</v>
+        <v>627.8267694298788</v>
       </c>
       <c r="G11" t="n">
-        <v>316.646083875343</v>
+        <v>260.2039522229487</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609171</v>
+        <v>3262.764786084339</v>
       </c>
       <c r="T11" t="n">
-        <v>3325.605821609171</v>
+        <v>3104.236671416634</v>
       </c>
       <c r="U11" t="n">
-        <v>3119.524977831081</v>
+        <v>2898.155827638544</v>
       </c>
       <c r="V11" t="n">
-        <v>2968.111524162294</v>
+        <v>2614.542573243047</v>
       </c>
       <c r="W11" t="n">
-        <v>2662.792501840254</v>
+        <v>2309.223550921006</v>
       </c>
       <c r="X11" t="n">
-        <v>2336.776376527248</v>
+        <v>1983.207425607999</v>
       </c>
       <c r="Y11" t="n">
-        <v>1994.086677499509</v>
+        <v>1640.517726580261</v>
       </c>
     </row>
     <row r="12">
@@ -5094,37 +5094,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G12" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5151,7 +5151,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V12" t="n">
         <v>1779.608347199865</v>
@@ -5160,10 +5160,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="13">
@@ -5185,7 +5185,7 @@
         <v>434.8492327268784</v>
       </c>
       <c r="F13" t="n">
-        <v>335.4089181770415</v>
+        <v>335.4089181770413</v>
       </c>
       <c r="G13" t="n">
         <v>215.1557144998337</v>
@@ -5194,13 +5194,13 @@
         <v>116.3881606657648</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
-        <v>158.1401341315257</v>
+        <v>158.1401341315256</v>
       </c>
       <c r="K13" t="n">
-        <v>408.6327023328087</v>
+        <v>408.6327023328086</v>
       </c>
       <c r="L13" t="n">
         <v>771.6978860337114</v>
@@ -5212,10 +5212,10 @@
         <v>1550.274078843938</v>
       </c>
       <c r="O13" t="n">
-        <v>1896.109063016758</v>
+        <v>1896.109063016759</v>
       </c>
       <c r="P13" t="n">
-        <v>2175.221948702824</v>
+        <v>2175.221948702825</v>
       </c>
       <c r="Q13" t="n">
         <v>2299.337630107746</v>
@@ -5236,10 +5236,10 @@
         <v>1489.515482921749</v>
       </c>
       <c r="W13" t="n">
-        <v>1247.547945832862</v>
+        <v>1247.547945832861</v>
       </c>
       <c r="X13" t="n">
-        <v>1067.008027882918</v>
+        <v>1067.008027882917</v>
       </c>
       <c r="Y13" t="n">
         <v>893.6650816874605</v>
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1791.061617637801</v>
+        <v>1404.8025029403</v>
       </c>
       <c r="C14" t="n">
-        <v>1469.548733645462</v>
+        <v>1083.289618947962</v>
       </c>
       <c r="D14" t="n">
-        <v>1158.732667986785</v>
+        <v>772.4735532892846</v>
       </c>
       <c r="E14" t="n">
-        <v>820.3940483366141</v>
+        <v>434.1349336391136</v>
       </c>
       <c r="F14" t="n">
-        <v>456.8577764950799</v>
+        <v>434.1349336391136</v>
       </c>
       <c r="G14" t="n">
-        <v>89.23495928814978</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
         <v>255.3912473912096</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810566</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329465</v>
@@ -5288,40 +5288,40 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3262.76478608434</v>
+        <v>3262.764786084339</v>
       </c>
       <c r="T14" t="n">
-        <v>3104.236671416635</v>
+        <v>3104.236671416634</v>
       </c>
       <c r="U14" t="n">
-        <v>3104.236671416635</v>
+        <v>2898.155827638544</v>
       </c>
       <c r="V14" t="n">
-        <v>3104.236671416635</v>
+        <v>2614.542573243047</v>
       </c>
       <c r="W14" t="n">
-        <v>2798.917649094594</v>
+        <v>2309.223550921006</v>
       </c>
       <c r="X14" t="n">
-        <v>2472.901523781587</v>
+        <v>1983.207425607999</v>
       </c>
       <c r="Y14" t="n">
-        <v>2130.211824753849</v>
+        <v>1743.952710056349</v>
       </c>
     </row>
     <row r="15">
@@ -5331,19 +5331,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811072</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999803</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387291</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332735</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601586</v>
       </c>
       <c r="G15" t="n">
         <v>176.021302392778</v>
@@ -5352,16 +5352,16 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5373,34 +5373,34 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501175</v>
       </c>
     </row>
     <row r="16">
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>759.4662498052942</v>
+        <v>759.4662498052943</v>
       </c>
       <c r="C16" t="n">
-        <v>637.9796998254606</v>
+        <v>637.9796998254607</v>
       </c>
       <c r="D16" t="n">
-        <v>535.3126933611982</v>
+        <v>535.3126933611983</v>
       </c>
       <c r="E16" t="n">
-        <v>434.8492327268782</v>
+        <v>434.8492327268784</v>
       </c>
       <c r="F16" t="n">
-        <v>335.408918177041</v>
+        <v>335.4089181770414</v>
       </c>
       <c r="G16" t="n">
-        <v>215.1557144998333</v>
+        <v>215.1557144998336</v>
       </c>
       <c r="H16" t="n">
-        <v>116.3881606657642</v>
+        <v>116.3881606657647</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
-        <v>158.1401341315255</v>
+        <v>158.1401341315259</v>
       </c>
       <c r="K16" t="n">
-        <v>408.6327023328084</v>
+        <v>408.6327023328087</v>
       </c>
       <c r="L16" t="n">
-        <v>771.6978860337113</v>
+        <v>771.6978860337115</v>
       </c>
       <c r="M16" t="n">
         <v>1162.360316885667</v>
@@ -5455,31 +5455,31 @@
         <v>2175.221948702824</v>
       </c>
       <c r="Q16" t="n">
-        <v>2299.337630107745</v>
+        <v>2299.337630107746</v>
       </c>
       <c r="R16" t="n">
-        <v>2256.956805813346</v>
+        <v>2256.956805813347</v>
       </c>
       <c r="S16" t="n">
-        <v>2112.720554588246</v>
+        <v>2112.720554588247</v>
       </c>
       <c r="T16" t="n">
         <v>1938.403572105846</v>
       </c>
       <c r="U16" t="n">
-        <v>1696.750338179563</v>
+        <v>1696.750338179562</v>
       </c>
       <c r="V16" t="n">
         <v>1489.515482921749</v>
       </c>
       <c r="W16" t="n">
-        <v>1247.547945832861</v>
+        <v>1247.547945832862</v>
       </c>
       <c r="X16" t="n">
-        <v>1067.008027882917</v>
+        <v>1067.008027882918</v>
       </c>
       <c r="Y16" t="n">
-        <v>893.6650816874605</v>
+        <v>893.6650816874607</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1794.302741791142</v>
+        <v>1473.076688949003</v>
       </c>
       <c r="C17" t="n">
-        <v>1589.641627304662</v>
+        <v>1360.971306047101</v>
       </c>
       <c r="D17" t="n">
-        <v>1300.289207831583</v>
+        <v>1071.618886574023</v>
       </c>
       <c r="E17" t="n">
-        <v>983.4142343670109</v>
+        <v>754.7439131094503</v>
       </c>
       <c r="F17" t="n">
-        <v>641.3416087110754</v>
+        <v>412.6712874535149</v>
       </c>
       <c r="G17" t="n">
-        <v>295.1824376897442</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H17" t="n">
         <v>66.51211643218343</v>
@@ -5513,34 +5513,34 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912085</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810566</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R17" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3284.228432269938</v>
+        <v>3284.228432269939</v>
       </c>
       <c r="T17" t="n">
         <v>3147.163963787832</v>
@@ -5555,10 +5555,10 @@
         <v>2416.541781849</v>
       </c>
       <c r="X17" t="n">
-        <v>2111.989302721591</v>
+        <v>2111.989302721593</v>
       </c>
       <c r="Y17" t="n">
-        <v>2111.989302721591</v>
+        <v>1790.763249879453</v>
       </c>
     </row>
     <row r="18">
@@ -5568,70 +5568,70 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811093</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999823</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387305</v>
+        <v>618.156415538731</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332755</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601605</v>
       </c>
       <c r="G18" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064616</v>
       </c>
       <c r="I18" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M18" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T18" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U18" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V18" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W18" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X18" t="n">
         <v>1317.519490266131</v>
@@ -5665,22 +5665,22 @@
         <v>172.2284221286363</v>
       </c>
       <c r="H19" t="n">
-        <v>94.92451448016607</v>
+        <v>94.92451448016605</v>
       </c>
       <c r="I19" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J19" t="n">
-        <v>140.259491928792</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K19" t="n">
-        <v>344.2466748776683</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L19" t="n">
-        <v>660.8064733261645</v>
+        <v>660.8064733261642</v>
       </c>
       <c r="M19" t="n">
-        <v>1004.963518925714</v>
+        <v>1004.963518925713</v>
       </c>
       <c r="N19" t="n">
         <v>1346.371895631578</v>
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1889.690865111402</v>
+        <v>1777.629168076411</v>
       </c>
       <c r="C20" t="n">
-        <v>1589.641627304662</v>
+        <v>1477.579930269671</v>
       </c>
       <c r="D20" t="n">
-        <v>1300.289207831584</v>
+        <v>1188.227510796592</v>
       </c>
       <c r="E20" t="n">
-        <v>983.4142343670112</v>
+        <v>871.3525373320203</v>
       </c>
       <c r="F20" t="n">
-        <v>641.3416087110757</v>
+        <v>529.2799116760848</v>
       </c>
       <c r="G20" t="n">
         <v>295.1824376897442</v>
@@ -5756,22 +5756,22 @@
         <v>589.2106210810571</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329466</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M20" t="n">
         <v>1573.77673900139</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060173</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.52802693951</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R20" t="n">
         <v>3325.605821609171</v>
@@ -5783,19 +5783,19 @@
         <v>3147.163963787832</v>
       </c>
       <c r="U20" t="n">
-        <v>3117.011334147841</v>
+        <v>2962.546766195341</v>
       </c>
       <c r="V20" t="n">
-        <v>3117.011334147841</v>
+        <v>2700.397157985442</v>
       </c>
       <c r="W20" t="n">
-        <v>2833.155958011399</v>
+        <v>2416.541781849</v>
       </c>
       <c r="X20" t="n">
-        <v>2528.603478883991</v>
+        <v>2416.541781849</v>
       </c>
       <c r="Y20" t="n">
-        <v>2207.377426041851</v>
+        <v>2095.31572900686</v>
       </c>
     </row>
     <row r="21">
@@ -5805,37 +5805,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G21" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I21" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5862,7 +5862,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V21" t="n">
         <v>1779.608347199865</v>
@@ -5871,10 +5871,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="22">
@@ -5911,7 +5911,7 @@
         <v>111.634748879119</v>
       </c>
       <c r="K22" t="n">
-        <v>344.2466748776683</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L22" t="n">
         <v>660.8064733261645</v>
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1898.193195237165</v>
+        <v>1898.193195237164</v>
       </c>
       <c r="C23" t="n">
-        <v>1598.143957430425</v>
+        <v>1598.143957430424</v>
       </c>
       <c r="D23" t="n">
         <v>1308.791537957346</v>
       </c>
       <c r="E23" t="n">
-        <v>991.916564492774</v>
+        <v>991.9165644927735</v>
       </c>
       <c r="F23" t="n">
-        <v>649.8439388368384</v>
+        <v>649.843938836838</v>
       </c>
       <c r="G23" t="n">
         <v>303.6847678155074</v>
@@ -5996,19 +5996,19 @@
         <v>1048.747164455227</v>
       </c>
       <c r="M23" t="n">
-        <v>1977.050940609817</v>
+        <v>1582.279069127152</v>
       </c>
       <c r="N23" t="n">
-        <v>2523.8297576686</v>
+        <v>2129.057886185934</v>
       </c>
       <c r="O23" t="n">
-        <v>3026.802228547937</v>
+        <v>2632.030357065271</v>
       </c>
       <c r="P23" t="n">
-        <v>3421.576594905115</v>
+        <v>3168.16780315729</v>
       </c>
       <c r="Q23" t="n">
-        <v>3691.705261340531</v>
+        <v>3626.646005666278</v>
       </c>
       <c r="R23" t="n">
         <v>3750.722327897333</v>
@@ -6026,13 +6026,13 @@
         <v>3125.513664273604</v>
       </c>
       <c r="W23" t="n">
-        <v>2841.658288137162</v>
+        <v>2841.658288137161</v>
       </c>
       <c r="X23" t="n">
         <v>2537.105809009754</v>
       </c>
       <c r="Y23" t="n">
-        <v>2215.879756167615</v>
+        <v>2215.879756167614</v>
       </c>
     </row>
     <row r="24">
@@ -6042,40 +6042,40 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>950.0461846068719</v>
+        <v>950.046184606872</v>
       </c>
       <c r="C24" t="n">
-        <v>775.5931553257449</v>
+        <v>775.593155325745</v>
       </c>
       <c r="D24" t="n">
-        <v>626.6587456644936</v>
+        <v>626.6587456644938</v>
       </c>
       <c r="E24" t="n">
-        <v>467.4212906590382</v>
+        <v>467.4212906590383</v>
       </c>
       <c r="F24" t="n">
-        <v>320.8867326859231</v>
+        <v>320.8867326859233</v>
       </c>
       <c r="G24" t="n">
-        <v>184.5236325185412</v>
+        <v>184.5236325185421</v>
       </c>
       <c r="H24" t="n">
-        <v>94.0217381564087</v>
+        <v>94.02173815640909</v>
       </c>
       <c r="I24" t="n">
         <v>75.01444655794667</v>
       </c>
       <c r="J24" t="n">
-        <v>168.691716048564</v>
+        <v>168.6917160485643</v>
       </c>
       <c r="K24" t="n">
-        <v>406.9559150289111</v>
+        <v>406.9559150289116</v>
       </c>
       <c r="L24" t="n">
-        <v>773.6540753415766</v>
+        <v>773.6540753415768</v>
       </c>
       <c r="M24" t="n">
-        <v>1220.930400563892</v>
+        <v>1220.930400563893</v>
       </c>
       <c r="N24" t="n">
         <v>1694.453444118347</v>
@@ -6087,7 +6087,7 @@
         <v>2415.914315012505</v>
       </c>
       <c r="Q24" t="n">
-        <v>2573.555872659104</v>
+        <v>2573.555872659105</v>
       </c>
       <c r="R24" t="n">
         <v>2573.41151925162</v>
@@ -6096,13 +6096,13 @@
         <v>2443.9736327451</v>
       </c>
       <c r="T24" t="n">
-        <v>2251.330632422955</v>
+        <v>2251.330632422956</v>
       </c>
       <c r="U24" t="n">
         <v>2023.262785557371</v>
       </c>
       <c r="V24" t="n">
-        <v>1788.110677325628</v>
+        <v>1788.110677325629</v>
       </c>
       <c r="W24" t="n">
         <v>1533.873320597427</v>
@@ -6160,10 +6160,10 @@
         <v>1326.249482707668</v>
       </c>
       <c r="O25" t="n">
-        <v>1654.203824677755</v>
+        <v>1625.579081628082</v>
       </c>
       <c r="P25" t="n">
-        <v>1886.811325111414</v>
+        <v>1858.186582061741</v>
       </c>
       <c r="Q25" t="n">
         <v>1964.421621263929</v>
@@ -6206,16 +6206,16 @@
         <v>1711.594658697161</v>
       </c>
       <c r="D26" t="n">
-        <v>1400.778593038483</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E26" t="n">
         <v>1062.439973388313</v>
       </c>
       <c r="F26" t="n">
-        <v>698.9037015467784</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G26" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398489</v>
       </c>
       <c r="H26" t="n">
         <v>81.14691689668915</v>
@@ -6236,16 +6236,16 @@
         <v>2033.429937623799</v>
       </c>
       <c r="N26" t="n">
-        <v>2580.208754682581</v>
+        <v>2852.295579285458</v>
       </c>
       <c r="O26" t="n">
-        <v>3083.181225561918</v>
+        <v>3355.268050164795</v>
       </c>
       <c r="P26" t="n">
-        <v>3477.955591919096</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q26" t="n">
-        <v>3933.269522603402</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R26" t="n">
         <v>4057.345844834458</v>
@@ -6260,16 +6260,16 @@
         <v>3629.895850863831</v>
       </c>
       <c r="V26" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W26" t="n">
-        <v>3040.963574146292</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X26" t="n">
-        <v>2714.947448833285</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y26" t="n">
-        <v>2372.257749805547</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="27">
@@ -6279,37 +6279,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456144</v>
       </c>
       <c r="C27" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644874</v>
       </c>
       <c r="D27" t="n">
-        <v>632.7912160032361</v>
+        <v>632.7912160032362</v>
       </c>
       <c r="E27" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977807</v>
       </c>
       <c r="F27" t="n">
-        <v>327.0192030246656</v>
+        <v>327.0192030246657</v>
       </c>
       <c r="G27" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572838</v>
       </c>
       <c r="H27" t="n">
-        <v>100.1542084951512</v>
+        <v>100.1542084951513</v>
       </c>
       <c r="I27" t="n">
         <v>81.14691689668915</v>
       </c>
       <c r="J27" t="n">
-        <v>174.8241863873066</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K27" t="n">
-        <v>413.0883853676538</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L27" t="n">
-        <v>779.7865456803191</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M27" t="n">
         <v>1227.062870902635</v>
@@ -6348,7 +6348,7 @@
         <v>1332.154290730636</v>
       </c>
       <c r="Y27" t="n">
-        <v>1124.393991965682</v>
+        <v>1124.393991965683</v>
       </c>
     </row>
     <row r="28">
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>774.1010502698002</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C28" t="n">
-        <v>652.6145002899666</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D28" t="n">
-        <v>549.9474938257042</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E28" t="n">
-        <v>449.4840331913844</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F28" t="n">
-        <v>350.0437186415473</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G28" t="n">
-        <v>229.7905149643395</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H28" t="n">
         <v>131.0229611302705</v>
@@ -6382,7 +6382,7 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J28" t="n">
-        <v>172.7749345960313</v>
+        <v>172.7749345960312</v>
       </c>
       <c r="K28" t="n">
         <v>423.2675027973143</v>
@@ -6403,10 +6403,10 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q28" t="n">
-        <v>2313.972430572252</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R28" t="n">
-        <v>2271.591606277853</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S28" t="n">
         <v>2127.355355052752</v>
@@ -6427,7 +6427,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y28" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
     <row r="29">
@@ -6440,19 +6440,19 @@
         <v>2033.107542689499</v>
       </c>
       <c r="C29" t="n">
-        <v>1711.59465869716</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D29" t="n">
         <v>1400.778593038483</v>
       </c>
       <c r="E29" t="n">
-        <v>1062.439973388312</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F29" t="n">
-        <v>698.9037015467779</v>
+        <v>698.9037015467784</v>
       </c>
       <c r="G29" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H29" t="n">
         <v>81.14691689668915</v>
@@ -6467,22 +6467,22 @@
         <v>603.8454215455611</v>
       </c>
       <c r="L29" t="n">
-        <v>1054.87963479397</v>
+        <v>1468.364237198916</v>
       </c>
       <c r="M29" t="n">
-        <v>2033.429937623799</v>
+        <v>2305.516762226675</v>
       </c>
       <c r="N29" t="n">
-        <v>2580.208754682581</v>
+        <v>2852.295579285458</v>
       </c>
       <c r="O29" t="n">
-        <v>3083.181225561918</v>
+        <v>3355.268050164795</v>
       </c>
       <c r="P29" t="n">
-        <v>3477.955591919096</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q29" t="n">
-        <v>3936.433794428084</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R29" t="n">
         <v>4057.345844834458</v>
@@ -6491,22 +6491,22 @@
         <v>3994.504809309626</v>
       </c>
       <c r="T29" t="n">
-        <v>3835.97669464192</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U29" t="n">
-        <v>3629.89585086383</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V29" t="n">
-        <v>3346.282596468332</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W29" t="n">
-        <v>3040.963574146292</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X29" t="n">
-        <v>2714.947448833285</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y29" t="n">
-        <v>2372.257749805547</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="30">
@@ -6516,25 +6516,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456144</v>
       </c>
       <c r="C30" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644874</v>
       </c>
       <c r="D30" t="n">
-        <v>632.7912160032361</v>
+        <v>632.7912160032362</v>
       </c>
       <c r="E30" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977807</v>
       </c>
       <c r="F30" t="n">
-        <v>327.0192030246656</v>
+        <v>327.0192030246657</v>
       </c>
       <c r="G30" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572838</v>
       </c>
       <c r="H30" t="n">
-        <v>100.1542084951512</v>
+        <v>100.1542084951513</v>
       </c>
       <c r="I30" t="n">
         <v>81.14691689668915</v>
@@ -6585,7 +6585,7 @@
         <v>1332.154290730636</v>
       </c>
       <c r="Y30" t="n">
-        <v>1124.393991965682</v>
+        <v>1124.393991965683</v>
       </c>
     </row>
     <row r="31">
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502698001</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899665</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D31" t="n">
-        <v>549.9474938257041</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E31" t="n">
-        <v>449.4840331913844</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F31" t="n">
-        <v>350.0437186415473</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G31" t="n">
-        <v>229.7905149643396</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H31" t="n">
         <v>131.0229611302705</v>
@@ -6619,10 +6619,10 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J31" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960315</v>
       </c>
       <c r="K31" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973145</v>
       </c>
       <c r="L31" t="n">
         <v>786.3326864982173</v>
@@ -6640,10 +6640,10 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q31" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.972430572252</v>
       </c>
       <c r="R31" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277853</v>
       </c>
       <c r="S31" t="n">
         <v>2127.355355052752</v>
@@ -6652,19 +6652,19 @@
         <v>1953.038372570352</v>
       </c>
       <c r="U31" t="n">
-        <v>1711.385138644069</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V31" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W31" t="n">
-        <v>1262.182746297368</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X31" t="n">
         <v>1081.642828347423</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.2998821519665</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
     <row r="32">
@@ -6680,13 +6680,13 @@
         <v>1711.594658697161</v>
       </c>
       <c r="D32" t="n">
-        <v>1400.778593038483</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E32" t="n">
         <v>1062.439973388313</v>
       </c>
       <c r="F32" t="n">
-        <v>698.9037015467784</v>
+        <v>698.9037015467787</v>
       </c>
       <c r="G32" t="n">
         <v>331.2808843398487</v>
@@ -6698,25 +6698,25 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J32" t="n">
-        <v>270.0260478557147</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K32" t="n">
-        <v>924.7493799910144</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L32" t="n">
-        <v>1375.783593239423</v>
+        <v>1054.87963479397</v>
       </c>
       <c r="M32" t="n">
-        <v>1909.315497911348</v>
+        <v>1986.936041136908</v>
       </c>
       <c r="N32" t="n">
-        <v>2456.09431497013</v>
+        <v>2533.71485819569</v>
       </c>
       <c r="O32" t="n">
-        <v>2959.066785849467</v>
+        <v>3036.687329075027</v>
       </c>
       <c r="P32" t="n">
-        <v>3539.850575768667</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q32" t="n">
         <v>3998.328778277655</v>
@@ -6737,13 +6737,13 @@
         <v>3346.282596468333</v>
       </c>
       <c r="W32" t="n">
-        <v>3040.963574146292</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X32" t="n">
-        <v>2714.947448833285</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y32" t="n">
-        <v>2372.257749805547</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="33">
@@ -6753,43 +6753,43 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>956.1786549456142</v>
+        <v>956.1786549456144</v>
       </c>
       <c r="C33" t="n">
-        <v>781.7256256644872</v>
+        <v>781.7256256644874</v>
       </c>
       <c r="D33" t="n">
-        <v>632.7912160032361</v>
+        <v>632.7912160032362</v>
       </c>
       <c r="E33" t="n">
-        <v>473.5537609977805</v>
+        <v>473.5537609977807</v>
       </c>
       <c r="F33" t="n">
-        <v>327.0192030246656</v>
+        <v>327.0192030246657</v>
       </c>
       <c r="G33" t="n">
-        <v>190.6561028572842</v>
+        <v>190.6561028572838</v>
       </c>
       <c r="H33" t="n">
-        <v>100.1542084951516</v>
+        <v>100.1542084951513</v>
       </c>
       <c r="I33" t="n">
         <v>81.14691689668915</v>
       </c>
       <c r="J33" t="n">
-        <v>174.8241863873063</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K33" t="n">
-        <v>413.0883853676537</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L33" t="n">
-        <v>779.7865456803188</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M33" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N33" t="n">
-        <v>1700.585914457089</v>
+        <v>1700.58591445709</v>
       </c>
       <c r="O33" t="n">
         <v>2111.547193875144</v>
@@ -6822,7 +6822,7 @@
         <v>1332.154290730636</v>
       </c>
       <c r="Y33" t="n">
-        <v>1124.393991965682</v>
+        <v>1124.393991965683</v>
       </c>
     </row>
     <row r="34">
@@ -6862,7 +6862,7 @@
         <v>423.2675027973144</v>
       </c>
       <c r="L34" t="n">
-        <v>786.3326864982173</v>
+        <v>786.3326864982172</v>
       </c>
       <c r="M34" t="n">
         <v>1176.995117350173</v>
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1711.141932470373</v>
+        <v>1711.141932470374</v>
       </c>
       <c r="C35" t="n">
         <v>1440.850850103805</v>
@@ -6920,10 +6920,10 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E35" t="n">
-        <v>894.1397680464969</v>
+        <v>894.139768046497</v>
       </c>
       <c r="F35" t="n">
-        <v>581.8252978307326</v>
+        <v>581.8252978307328</v>
       </c>
       <c r="G35" t="n">
         <v>265.4242822495729</v>
@@ -6953,10 +6953,10 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R35" t="n">
         <v>3325.605821609171</v>
@@ -6977,7 +6977,7 @@
         <v>2565.332559049857</v>
       </c>
       <c r="X35" t="n">
-        <v>2290.53823536262</v>
+        <v>2290.538235362621</v>
       </c>
       <c r="Y35" t="n">
         <v>1999.070337960652</v>
@@ -7069,13 +7069,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>500.9308303909362</v>
+        <v>543.5641013650707</v>
       </c>
       <c r="C37" t="n">
         <v>430.6660820368726</v>
       </c>
       <c r="D37" t="n">
-        <v>379.2208771983802</v>
+        <v>280.5494426245369</v>
       </c>
       <c r="E37" t="n">
         <v>231.3077836159871</v>
@@ -7120,25 +7120,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S37" t="n">
-        <v>1834.280098489162</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T37" t="n">
-        <v>1668.551646658397</v>
+        <v>1612.513483058689</v>
       </c>
       <c r="U37" t="n">
-        <v>1478.120214357884</v>
+        <v>1422.082050758175</v>
       </c>
       <c r="V37" t="n">
-        <v>1322.107160725841</v>
+        <v>1266.068997126132</v>
       </c>
       <c r="W37" t="n">
-        <v>1032.68999068888</v>
+        <v>976.6518270891711</v>
       </c>
       <c r="X37" t="n">
-        <v>804.7004397908627</v>
+        <v>748.6622761911538</v>
       </c>
       <c r="Y37" t="n">
-        <v>583.9078606473325</v>
+        <v>626.541131621467</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1711.141932470374</v>
+        <v>1711.141932470375</v>
       </c>
       <c r="C38" t="n">
-        <v>1440.850850103805</v>
+        <v>1440.850850103806</v>
       </c>
       <c r="D38" t="n">
-        <v>1181.256586070898</v>
+        <v>1181.256586070899</v>
       </c>
       <c r="E38" t="n">
-        <v>894.1397680464975</v>
+        <v>894.139768046498</v>
       </c>
       <c r="F38" t="n">
-        <v>581.8252978307332</v>
+        <v>581.8252978307338</v>
       </c>
       <c r="G38" t="n">
         <v>265.4242822495729</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S38" t="n">
-        <v>3313.98658771011</v>
+        <v>3313.986587710111</v>
       </c>
       <c r="T38" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668176</v>
       </c>
       <c r="U38" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515856</v>
       </c>
       <c r="V38" t="n">
-        <v>2819.429779746128</v>
+        <v>2819.429779746129</v>
       </c>
       <c r="W38" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049858</v>
       </c>
       <c r="X38" t="n">
         <v>2290.538235362621</v>
       </c>
       <c r="Y38" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960653</v>
       </c>
     </row>
     <row r="39">
@@ -7248,16 +7248,16 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>740.9069705127571</v>
+        <v>552.4050786964424</v>
       </c>
       <c r="C40" t="n">
-        <v>571.9707875848502</v>
+        <v>482.1403303423788</v>
       </c>
       <c r="D40" t="n">
-        <v>421.8541481725144</v>
+        <v>430.6951255038864</v>
       </c>
       <c r="E40" t="n">
-        <v>372.6124891639647</v>
+        <v>381.4534664953366</v>
       </c>
       <c r="F40" t="n">
-        <v>324.3939762398976</v>
+        <v>333.2349535712696</v>
       </c>
       <c r="G40" t="n">
-        <v>255.3625741884599</v>
+        <v>264.2035515198318</v>
       </c>
       <c r="H40" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J40" t="n">
         <v>111.634748879119</v>
@@ -7354,28 +7354,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R40" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S40" t="n">
-        <v>1834.280098489162</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T40" t="n">
-        <v>1711.184917632532</v>
+        <v>1522.683025816217</v>
       </c>
       <c r="U40" t="n">
-        <v>1520.753485332019</v>
+        <v>1233.58015894186</v>
       </c>
       <c r="V40" t="n">
-        <v>1364.740431699975</v>
+        <v>1077.567105309817</v>
       </c>
       <c r="W40" t="n">
-        <v>1173.994696236858</v>
+        <v>886.8213698466994</v>
       </c>
       <c r="X40" t="n">
-        <v>1044.676579912684</v>
+        <v>757.5032535225255</v>
       </c>
       <c r="Y40" t="n">
-        <v>823.8840007691534</v>
+        <v>635.3821089528387</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1524.670850701587</v>
+        <v>1503.254038370577</v>
       </c>
       <c r="C41" t="n">
-        <v>1228.393781572544</v>
+        <v>1206.976969241534</v>
       </c>
       <c r="D41" t="n">
-        <v>942.8135307771622</v>
+        <v>1206.976969241534</v>
       </c>
       <c r="E41" t="n">
-        <v>629.7107259902866</v>
+        <v>893.8741644546583</v>
       </c>
       <c r="F41" t="n">
-        <v>291.4102690120475</v>
+        <v>633.7972713556823</v>
       </c>
       <c r="G41" t="n">
         <v>291.4102690120475</v>
@@ -7409,52 +7409,52 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M41" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R41" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3309.417413278646</v>
+        <v>3288.000600947635</v>
       </c>
       <c r="T41" t="n">
-        <v>3176.125113474237</v>
+        <v>3154.708301143226</v>
       </c>
       <c r="U41" t="n">
-        <v>2995.280084559442</v>
+        <v>2973.863272228431</v>
       </c>
       <c r="V41" t="n">
-        <v>2736.902645027239</v>
+        <v>2715.485832696229</v>
       </c>
       <c r="W41" t="n">
-        <v>2456.819437568494</v>
+        <v>2435.402625237484</v>
       </c>
       <c r="X41" t="n">
-        <v>2156.039127118783</v>
+        <v>2134.622314787773</v>
       </c>
       <c r="Y41" t="n">
-        <v>1838.58524295434</v>
+        <v>1817.16843062333</v>
       </c>
     </row>
     <row r="42">
@@ -7488,13 +7488,13 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
@@ -7546,10 +7546,10 @@
         <v>582.8155457622263</v>
       </c>
       <c r="C43" t="n">
-        <v>486.5648106456881</v>
+        <v>486.5648106456882</v>
       </c>
       <c r="D43" t="n">
-        <v>409.1336190447211</v>
+        <v>409.1336190447212</v>
       </c>
       <c r="E43" t="n">
         <v>333.9059732736968</v>
@@ -7561,7 +7561,7 @@
         <v>164.6840847732428</v>
       </c>
       <c r="H43" t="n">
-        <v>91.15234580246934</v>
+        <v>91.15234580246936</v>
       </c>
       <c r="I43" t="n">
         <v>66.51211643218343</v>
@@ -7594,13 +7594,13 @@
         <v>1910.149538657389</v>
       </c>
       <c r="S43" t="n">
-        <v>1791.149102295584</v>
+        <v>1759.41914650211</v>
       </c>
       <c r="T43" t="n">
-        <v>1642.067934676479</v>
+        <v>1610.337978883005</v>
       </c>
       <c r="U43" t="n">
-        <v>1425.650515613492</v>
+        <v>1393.920559820017</v>
       </c>
       <c r="V43" t="n">
         <v>1211.921519425499</v>
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1817.168430623329</v>
+        <v>1503.254038370576</v>
       </c>
       <c r="C44" t="n">
-        <v>1570.780783916178</v>
+        <v>1206.976969241533</v>
       </c>
       <c r="D44" t="n">
-        <v>1285.200533120797</v>
+        <v>921.3967184461515</v>
       </c>
       <c r="E44" t="n">
-        <v>972.0977283339211</v>
+        <v>921.3967184461515</v>
       </c>
       <c r="F44" t="n">
-        <v>633.7972713556821</v>
+        <v>583.0962614679127</v>
       </c>
       <c r="G44" t="n">
-        <v>291.4102690120475</v>
+        <v>240.7092591242777</v>
       </c>
       <c r="H44" t="n">
         <v>66.51211643218343</v>
@@ -7649,25 +7649,25 @@
         <v>255.3912473912096</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810571</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329466</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M44" t="n">
         <v>1573.77673900139</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060173</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.52802693951</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R44" t="n">
         <v>3325.605821609171</v>
@@ -7701,37 +7701,37 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G45" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I45" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7758,7 +7758,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V45" t="n">
         <v>1779.608347199865</v>
@@ -7767,10 +7767,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X45" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="46">
@@ -7783,10 +7783,10 @@
         <v>582.8155457622263</v>
       </c>
       <c r="C46" t="n">
-        <v>486.5648106456881</v>
+        <v>486.5648106456882</v>
       </c>
       <c r="D46" t="n">
-        <v>409.1336190447211</v>
+        <v>409.1336190447212</v>
       </c>
       <c r="E46" t="n">
         <v>333.9059732736968</v>
@@ -7798,7 +7798,7 @@
         <v>164.6840847732428</v>
       </c>
       <c r="H46" t="n">
-        <v>91.15234580246934</v>
+        <v>91.15234580246936</v>
       </c>
       <c r="I46" t="n">
         <v>66.51211643218343</v>
@@ -7837,13 +7837,13 @@
         <v>1642.067934676479</v>
       </c>
       <c r="U46" t="n">
-        <v>1393.920559820017</v>
+        <v>1425.650515613492</v>
       </c>
       <c r="V46" t="n">
-        <v>1211.921519425499</v>
+        <v>1243.651475218974</v>
       </c>
       <c r="W46" t="n">
-        <v>995.1897971999072</v>
+        <v>1026.919752993382</v>
       </c>
       <c r="X46" t="n">
         <v>839.8856941132585</v>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>161.2833466331808</v>
+        <v>161.2833466331809</v>
       </c>
       <c r="K8" t="n">
-        <v>190.4708996772608</v>
+        <v>190.4708996772611</v>
       </c>
       <c r="L8" t="n">
-        <v>199.021486711493</v>
+        <v>199.0214867114933</v>
       </c>
       <c r="M8" t="n">
-        <v>189.4604205499962</v>
+        <v>189.4604205499965</v>
       </c>
       <c r="N8" t="n">
-        <v>187.8656757253949</v>
+        <v>187.8656757253952</v>
       </c>
       <c r="O8" t="n">
-        <v>190.8661912001297</v>
+        <v>190.86619120013</v>
       </c>
       <c r="P8" t="n">
-        <v>197.7493741610374</v>
+        <v>197.7493741610377</v>
       </c>
       <c r="Q8" t="n">
-        <v>197.1608845168178</v>
+        <v>197.160884516818</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>115.0671825723701</v>
+        <v>115.0671825723702</v>
       </c>
       <c r="K9" t="n">
-        <v>117.723875248454</v>
+        <v>117.7238752484542</v>
       </c>
       <c r="L9" t="n">
-        <v>111.5038326888313</v>
+        <v>111.5038326888316</v>
       </c>
       <c r="M9" t="n">
-        <v>110.5673213586501</v>
+        <v>110.5673213586503</v>
       </c>
       <c r="N9" t="n">
-        <v>98.93952256809749</v>
+        <v>98.93952256809774</v>
       </c>
       <c r="O9" t="n">
-        <v>112.954571319552</v>
+        <v>112.9545713195522</v>
       </c>
       <c r="P9" t="n">
-        <v>110.1843514755398</v>
+        <v>110.1843514755399</v>
       </c>
       <c r="Q9" t="n">
-        <v>124.0787517137821</v>
+        <v>124.0787517137823</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,19 +8614,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>119.3562654747614</v>
+        <v>119.3562654747615</v>
       </c>
       <c r="M10" t="n">
-        <v>122.5532519960286</v>
+        <v>122.5532519960288</v>
       </c>
       <c r="N10" t="n">
-        <v>111.702314729057</v>
+        <v>111.7023147290571</v>
       </c>
       <c r="O10" t="n">
-        <v>123.6934388297869</v>
+        <v>123.693438829787</v>
       </c>
       <c r="P10" t="n">
-        <v>125.0956219182091</v>
+        <v>125.0956219182092</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -9237,7 +9237,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>-6.963318810448982e-13</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>398.7594661441066</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9653,13 +9653,13 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>142.7909896311522</v>
       </c>
       <c r="Q23" t="n">
-        <v>22.06293401993267</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9884,7 +9884,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>274.8351763665421</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -9893,10 +9893,10 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>209.1187564935596</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9948,7 +9948,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>-1.06581410364015e-13</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -10115,10 +10115,10 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>306.6874953089243</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10130,10 +10130,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>62.52018570663735</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10185,7 +10185,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>-1.06581410364015e-13</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -10349,13 +10349,13 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>402.5500016878925</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -10364,10 +10364,10 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>187.8883066283047</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -10422,7 +10422,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>-1.06581410364015e-13</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -10601,13 +10601,13 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>4.760636329592671e-13</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10826,7 +10826,7 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>1.250555214937776e-12</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>4.760636329592671e-13</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11370,7 +11370,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>2.167155344068306e-13</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -23255,10 +23255,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23267,13 +23267,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>359.9009091231189</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>55.87771033587033</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,16 +23306,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>62.21262516958329</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>156.9428335210276</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>130.8778027194432</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23504,13 +23504,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>225.1370133413212</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23549,10 +23549,10 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>204.0200353403094</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>280.7771218515423</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>102.4006336413268</v>
       </c>
     </row>
     <row r="15">
@@ -23732,7 +23732,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>94.43424208705703</v>
+        <v>186.0644163557893</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23747,7 +23747,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>226.3836180449852</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23798,7 +23798,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>318.0137923137183</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23981,7 +23981,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>110.9410800646408</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24023,16 +24023,16 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>152.9199222729747</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>259.5281121277996</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>301.5069543361337</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24458,7 +24458,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>-1.77635683940025e-13</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24728,7 +24728,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -25631,16 +25631,16 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>282.7244482874279</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>77.44132824047003</v>
       </c>
       <c r="G41" t="n">
-        <v>338.9631323201984</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -25676,7 +25676,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>21.20264420770024</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25862,16 +25862,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>310.7752483302255</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>49.39052819767267</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>309.9717767390067</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25880,7 +25880,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>50.19399978889206</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>875819.1562767229</v>
+        <v>875819.1562767231</v>
       </c>
     </row>
     <row r="5">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>823069.0372213514</v>
+        <v>823069.0372213513</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>823069.0372213512</v>
+        <v>823069.0372213513</v>
       </c>
     </row>
     <row r="13">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>655421.0709736308</v>
+        <v>655421.0709736306</v>
       </c>
       <c r="C2" t="n">
-        <v>655421.0709736306</v>
+        <v>655421.0709736305</v>
       </c>
       <c r="D2" t="n">
-        <v>655435.8986404497</v>
+        <v>655435.8986404494</v>
       </c>
       <c r="E2" t="n">
-        <v>611624.8079118744</v>
+        <v>611624.807911874</v>
       </c>
       <c r="F2" t="n">
-        <v>611624.8079118741</v>
+        <v>611624.807911874</v>
       </c>
       <c r="G2" t="n">
-        <v>630568.725060785</v>
+        <v>630568.7250607851</v>
       </c>
       <c r="H2" t="n">
-        <v>630568.7250607851</v>
+        <v>630568.7250607846</v>
       </c>
       <c r="I2" t="n">
+        <v>656833.4158914264</v>
+      </c>
+      <c r="J2" t="n">
+        <v>656833.4158914265</v>
+      </c>
+      <c r="K2" t="n">
         <v>656833.4158914267</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
+        <v>656833.415891427</v>
+      </c>
+      <c r="M2" t="n">
+        <v>656833.4158914266</v>
+      </c>
+      <c r="N2" t="n">
         <v>656833.4158914267</v>
       </c>
-      <c r="K2" t="n">
-        <v>656833.4158914265</v>
-      </c>
-      <c r="L2" t="n">
-        <v>656833.415891426</v>
-      </c>
-      <c r="M2" t="n">
-        <v>656833.4158914267</v>
-      </c>
-      <c r="N2" t="n">
-        <v>656833.415891427</v>
-      </c>
       <c r="O2" t="n">
-        <v>633898.0592421306</v>
+        <v>633898.0592421303</v>
       </c>
       <c r="P2" t="n">
-        <v>633898.0592421303</v>
+        <v>633898.0592421301</v>
       </c>
     </row>
     <row r="3">
@@ -26369,7 +26369,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>49603.99004265037</v>
+        <v>49603.99004264997</v>
       </c>
       <c r="E3" t="n">
         <v>1114814.601112467</v>
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>16999.2077789942</v>
+        <v>16999.20777899452</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>28261.85161716357</v>
       </c>
       <c r="J3" t="n">
-        <v>40637.45238225412</v>
+        <v>40637.45238225411</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>456050.862460756</v>
+        <v>456062.6167063798</v>
       </c>
       <c r="C4" t="n">
-        <v>456050.862460756</v>
+        <v>456062.6167063799</v>
       </c>
       <c r="D4" t="n">
-        <v>437439.8854294235</v>
+        <v>437450.0367563782</v>
       </c>
       <c r="E4" t="n">
-        <v>60459.65421971237</v>
+        <v>60460.98797549342</v>
       </c>
       <c r="F4" t="n">
-        <v>60459.65421971237</v>
+        <v>60460.98797549344</v>
       </c>
       <c r="G4" t="n">
-        <v>73868.31063551377</v>
+        <v>73869.64439129477</v>
       </c>
       <c r="H4" t="n">
-        <v>73868.31063551377</v>
+        <v>73869.6443912948</v>
       </c>
       <c r="I4" t="n">
-        <v>91236.06288137284</v>
+        <v>91239.22784778793</v>
       </c>
       <c r="J4" t="n">
-        <v>90354.23427899959</v>
+        <v>90358.72004156484</v>
       </c>
       <c r="K4" t="n">
-        <v>90354.23427899962</v>
+        <v>90358.72004156481</v>
       </c>
       <c r="L4" t="n">
-        <v>90354.23427899956</v>
+        <v>90358.72004156484</v>
       </c>
       <c r="M4" t="n">
-        <v>92598.1638292586</v>
+        <v>92599.49758503964</v>
       </c>
       <c r="N4" t="n">
-        <v>92598.1638292586</v>
+        <v>92599.49758503966</v>
       </c>
       <c r="O4" t="n">
-        <v>76234.73077696832</v>
+        <v>76236.0645327493</v>
       </c>
       <c r="P4" t="n">
-        <v>76234.7307769683</v>
+        <v>76236.06453274931</v>
       </c>
     </row>
     <row r="5">
@@ -26473,16 +26473,16 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>34890.26850253473</v>
+        <v>34890.26850253472</v>
       </c>
       <c r="E5" t="n">
-        <v>78255.49332178176</v>
+        <v>78255.49332178175</v>
       </c>
       <c r="F5" t="n">
-        <v>78255.49332178176</v>
+        <v>78255.49332178175</v>
       </c>
       <c r="G5" t="n">
-        <v>80041.87632024709</v>
+        <v>80041.8763202471</v>
       </c>
       <c r="H5" t="n">
         <v>80041.87632024709</v>
@@ -26503,7 +26503,7 @@
         <v>82518.59730624985</v>
       </c>
       <c r="N5" t="n">
-        <v>82518.59730624985</v>
+        <v>82518.59730624987</v>
       </c>
       <c r="O5" t="n">
         <v>80355.82754432672</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>165742.6085128747</v>
+        <v>165726.4406893827</v>
       </c>
       <c r="C6" t="n">
-        <v>165742.6085128746</v>
+        <v>165726.4406893826</v>
       </c>
       <c r="D6" t="n">
-        <v>133501.7546658412</v>
+        <v>133487.2360974772</v>
       </c>
       <c r="E6" t="n">
-        <v>-641904.9407420863</v>
+        <v>-642047.5513978041</v>
       </c>
       <c r="F6" t="n">
-        <v>472909.66037038</v>
+        <v>472767.049714663</v>
       </c>
       <c r="G6" t="n">
-        <v>459659.3303260299</v>
+        <v>459575.9194114029</v>
       </c>
       <c r="H6" t="n">
-        <v>476658.5381050243</v>
+        <v>476575.1271903971</v>
       </c>
       <c r="I6" t="n">
-        <v>450831.8541770631</v>
+        <v>450828.6892106478</v>
       </c>
       <c r="J6" t="n">
-        <v>436463.7875553669</v>
+        <v>436459.3017928014</v>
       </c>
       <c r="K6" t="n">
-        <v>477101.2399376208</v>
+        <v>477096.7541750558</v>
       </c>
       <c r="L6" t="n">
-        <v>460102.0321586261</v>
+        <v>460097.5463960618</v>
       </c>
       <c r="M6" t="n">
-        <v>279548.554763194</v>
+        <v>279547.2210074129</v>
       </c>
       <c r="N6" t="n">
-        <v>481716.6547559185</v>
+        <v>481715.3210001371</v>
       </c>
       <c r="O6" t="n">
-        <v>477307.5009208356</v>
+        <v>477234.4941755251</v>
       </c>
       <c r="P6" t="n">
-        <v>477307.5009208352</v>
+        <v>477234.494175525</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G2" t="n">
         <v>68.22414634233529</v>
@@ -26710,22 +26710,22 @@
         <v>46.97513661859256</v>
       </c>
       <c r="K2" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M2" t="n">
         <v>97.68472022810488</v>
       </c>
       <c r="N2" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="O2" t="n">
-        <v>71.95859333325505</v>
+        <v>71.95859333325504</v>
       </c>
       <c r="P2" t="n">
-        <v>71.95859333325505</v>
+        <v>71.95859333325504</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>57.92057351076743</v>
+        <v>57.92057351076695</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26750,7 +26750,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="H3" t="n">
         <v>1089.776700593298</v>
@@ -26765,7 +26765,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="L3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="M3" t="n">
         <v>1089.776700593298</v>
@@ -26796,10 +26796,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="G4" t="n">
         <v>831.4014554022929</v>
@@ -26823,7 +26823,7 @@
         <v>831.4014554022929</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="O4" t="n">
         <v>831.4014554022929</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>21.24900972374274</v>
+        <v>21.24900972374271</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>21.24900972374272</v>
+        <v>21.24900972374271</v>
       </c>
       <c r="M2" t="n">
-        <v>50.70958360951233</v>
+        <v>50.70958360951232</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26963,7 +26963,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>57.92057351076743</v>
+        <v>57.92057351076695</v>
       </c>
       <c r="E3" t="n">
         <v>1031.856127082531</v>
@@ -26972,7 +26972,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>648.4664495959713</v>
+        <v>648.4664495959711</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>21.24900972374274</v>
+        <v>21.24900972374271</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>337.0901626244419</v>
+        <v>337.090162624442</v>
       </c>
       <c r="I8" t="n">
-        <v>201.499073850712</v>
+        <v>201.4990738507121</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>135.24257230981</v>
+        <v>135.2425723098101</v>
       </c>
       <c r="S8" t="n">
         <v>203.7140793596057</v>
@@ -27950,7 +27950,7 @@
         <v>111.032226284886</v>
       </c>
       <c r="I9" t="n">
-        <v>85.10723188858938</v>
+        <v>85.10723188858941</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,7 +27977,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>92.42270548643158</v>
+        <v>92.42270548643165</v>
       </c>
       <c r="S9" t="n">
         <v>169.3690802659312</v>
@@ -28032,10 +28032,10 @@
         <v>152.3094707112973</v>
       </c>
       <c r="J10" t="n">
-        <v>85.9747817528492</v>
+        <v>85.97478175284925</v>
       </c>
       <c r="K10" t="n">
-        <v>10.13465691657781</v>
+        <v>10.13465691657791</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>77.4160366515685</v>
+        <v>77.41603665156858</v>
       </c>
       <c r="R10" t="n">
         <v>172.5970773348047</v>
@@ -28087,25 +28087,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I11" t="n">
         <v>41.57692977292595</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="J16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="K16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="L16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="M16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="N16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="O16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="P16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Q16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="R16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="S16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="17">
@@ -28582,7 +28582,7 @@
         <v>68.22414634233529</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28743,13 +28743,13 @@
         <v>68.22414634233529</v>
       </c>
       <c r="J19" t="n">
-        <v>28.91388186835653</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>28.9138818683561</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -28983,10 +28983,10 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>28.91388186835653</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>28.91388186835655</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -29232,13 +29232,13 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>28.91388186835667</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>28.91388186835671</v>
       </c>
       <c r="R25" t="n">
         <v>68.22414634233529</v>
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292595</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859233</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859207</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="35">
@@ -30144,13 +30144,13 @@
         <v>97.68472022810488</v>
       </c>
       <c r="C37" t="n">
+        <v>55.47778196371175</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
         <v>97.68472022810488</v>
-      </c>
-      <c r="D37" t="n">
-        <v>97.68472022810488</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>97.68472022810488</v>
@@ -30192,10 +30192,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
         <v>97.68472022810488</v>
-      </c>
-      <c r="T37" t="n">
-        <v>55.47778196371192</v>
       </c>
       <c r="U37" t="n">
         <v>97.68472022810488</v>
@@ -30210,7 +30210,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>97.68472022810488</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="C38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="D38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="E38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="F38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="G38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="H38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="T38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="U38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="V38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="W38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="X38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="Y38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810488</v>
       </c>
     </row>
     <row r="39">
@@ -30378,25 +30378,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="E40" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="F40" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="G40" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="H40" t="n">
-        <v>54.14548214544519</v>
+        <v>45.39291458738698</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -30426,28 +30426,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>97.68472022810489</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="U40" t="n">
-        <v>97.68472022810489</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="W40" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="X40" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>97.68472022810488</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>71.95859333325505</v>
+        <v>71.95859333325504</v>
       </c>
       <c r="C41" t="n">
-        <v>71.95859333325505</v>
+        <v>71.95859333325504</v>
       </c>
       <c r="D41" t="n">
-        <v>71.95859333325505</v>
+        <v>71.95859333325504</v>
       </c>
       <c r="E41" t="n">
-        <v>71.95859333325505</v>
+        <v>71.95859333325504</v>
       </c>
       <c r="F41" t="n">
-        <v>71.95859333325505</v>
+        <v>71.95859333325504</v>
       </c>
       <c r="G41" t="n">
-        <v>71.95859333325505</v>
+        <v>71.95859333325504</v>
       </c>
       <c r="H41" t="n">
-        <v>71.95859333325505</v>
+        <v>71.95859333325504</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>71.95859333325505</v>
+        <v>71.95859333325504</v>
       </c>
       <c r="T41" t="n">
-        <v>71.95859333325505</v>
+        <v>71.95859333325504</v>
       </c>
       <c r="U41" t="n">
-        <v>71.95859333325505</v>
+        <v>71.95859333325504</v>
       </c>
       <c r="V41" t="n">
-        <v>71.95859333325505</v>
+        <v>71.95859333325504</v>
       </c>
       <c r="W41" t="n">
-        <v>71.95859333325505</v>
+        <v>71.95859333325504</v>
       </c>
       <c r="X41" t="n">
-        <v>71.95859333325505</v>
+        <v>71.95859333325504</v>
       </c>
       <c r="Y41" t="n">
-        <v>71.95859333325505</v>
+        <v>71.95859333325504</v>
       </c>
     </row>
     <row r="42">
@@ -30615,28 +30615,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>71.95859333325505</v>
+        <v>71.95859333325504</v>
       </c>
       <c r="C43" t="n">
-        <v>71.95859333325505</v>
+        <v>71.95859333325504</v>
       </c>
       <c r="D43" t="n">
-        <v>71.95859333325505</v>
+        <v>71.95859333325504</v>
       </c>
       <c r="E43" t="n">
-        <v>71.95859333325505</v>
+        <v>71.95859333325504</v>
       </c>
       <c r="F43" t="n">
-        <v>71.95859333325505</v>
+        <v>71.95859333325504</v>
       </c>
       <c r="G43" t="n">
-        <v>71.95859333325505</v>
+        <v>71.95859333325504</v>
       </c>
       <c r="H43" t="n">
-        <v>71.95859333325505</v>
+        <v>71.95859333325504</v>
       </c>
       <c r="I43" t="n">
-        <v>71.95859333325505</v>
+        <v>71.95859333325504</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -30663,28 +30663,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>71.95859333325505</v>
+        <v>71.95859333325504</v>
       </c>
       <c r="S43" t="n">
-        <v>71.95859333325505</v>
+        <v>40.54593709771535</v>
       </c>
       <c r="T43" t="n">
-        <v>71.95859333325505</v>
+        <v>71.95859333325504</v>
       </c>
       <c r="U43" t="n">
-        <v>71.95859333325505</v>
+        <v>71.95859333325504</v>
       </c>
       <c r="V43" t="n">
-        <v>40.54593709771532</v>
+        <v>71.95859333325504</v>
       </c>
       <c r="W43" t="n">
-        <v>71.95859333325505</v>
+        <v>71.95859333325504</v>
       </c>
       <c r="X43" t="n">
-        <v>71.95859333325505</v>
+        <v>71.95859333325504</v>
       </c>
       <c r="Y43" t="n">
-        <v>71.95859333325505</v>
+        <v>71.95859333325504</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>71.95859333325505</v>
+        <v>71.95859333325504</v>
       </c>
       <c r="C44" t="n">
-        <v>71.95859333325505</v>
+        <v>71.95859333325504</v>
       </c>
       <c r="D44" t="n">
-        <v>71.95859333325505</v>
+        <v>71.95859333325504</v>
       </c>
       <c r="E44" t="n">
-        <v>71.95859333325505</v>
+        <v>71.95859333325504</v>
       </c>
       <c r="F44" t="n">
-        <v>71.95859333325505</v>
+        <v>71.95859333325504</v>
       </c>
       <c r="G44" t="n">
-        <v>71.95859333325505</v>
+        <v>71.95859333325504</v>
       </c>
       <c r="H44" t="n">
-        <v>71.95859333325505</v>
+        <v>71.95859333325504</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292595</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>71.95859333325505</v>
+        <v>71.95859333325504</v>
       </c>
       <c r="T44" t="n">
-        <v>71.95859333325505</v>
+        <v>71.95859333325504</v>
       </c>
       <c r="U44" t="n">
-        <v>71.95859333325505</v>
+        <v>71.95859333325504</v>
       </c>
       <c r="V44" t="n">
-        <v>71.95859333325505</v>
+        <v>71.95859333325504</v>
       </c>
       <c r="W44" t="n">
-        <v>71.95859333325505</v>
+        <v>71.95859333325504</v>
       </c>
       <c r="X44" t="n">
-        <v>71.95859333325505</v>
+        <v>71.95859333325504</v>
       </c>
       <c r="Y44" t="n">
-        <v>71.95859333325505</v>
+        <v>71.95859333325504</v>
       </c>
     </row>
     <row r="45">
@@ -30852,28 +30852,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>71.95859333325505</v>
+        <v>71.95859333325504</v>
       </c>
       <c r="C46" t="n">
-        <v>71.95859333325505</v>
+        <v>71.95859333325504</v>
       </c>
       <c r="D46" t="n">
-        <v>71.95859333325505</v>
+        <v>71.95859333325504</v>
       </c>
       <c r="E46" t="n">
-        <v>71.95859333325505</v>
+        <v>71.95859333325504</v>
       </c>
       <c r="F46" t="n">
-        <v>71.95859333325505</v>
+        <v>71.95859333325504</v>
       </c>
       <c r="G46" t="n">
-        <v>71.95859333325505</v>
+        <v>71.95859333325504</v>
       </c>
       <c r="H46" t="n">
-        <v>71.95859333325505</v>
+        <v>71.95859333325504</v>
       </c>
       <c r="I46" t="n">
-        <v>71.95859333325505</v>
+        <v>71.95859333325504</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -30900,28 +30900,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>71.95859333325505</v>
+        <v>71.95859333325504</v>
       </c>
       <c r="S46" t="n">
-        <v>71.95859333325505</v>
+        <v>71.95859333325504</v>
       </c>
       <c r="T46" t="n">
-        <v>71.95859333325505</v>
+        <v>71.95859333325504</v>
       </c>
       <c r="U46" t="n">
-        <v>40.54593709771532</v>
+        <v>71.95859333325504</v>
       </c>
       <c r="V46" t="n">
-        <v>71.95859333325505</v>
+        <v>71.95859333325504</v>
       </c>
       <c r="W46" t="n">
-        <v>71.95859333325505</v>
+        <v>71.95859333325504</v>
       </c>
       <c r="X46" t="n">
-        <v>71.95859333325505</v>
+        <v>40.54593709771518</v>
       </c>
       <c r="Y46" t="n">
-        <v>71.95859333325505</v>
+        <v>71.95859333325504</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2328465266764518</v>
+        <v>0.2328465266764499</v>
       </c>
       <c r="H8" t="n">
-        <v>2.384639491325212</v>
+        <v>2.384639491325193</v>
       </c>
       <c r="I8" t="n">
-        <v>8.976815719693915</v>
+        <v>8.976815719693843</v>
       </c>
       <c r="J8" t="n">
-        <v>19.76255789350552</v>
+        <v>19.76255789350536</v>
       </c>
       <c r="K8" t="n">
-        <v>29.61895136771973</v>
+        <v>29.61895136771948</v>
       </c>
       <c r="L8" t="n">
-        <v>36.7449282584942</v>
+        <v>36.74492825849389</v>
       </c>
       <c r="M8" t="n">
-        <v>40.88581267727655</v>
+        <v>40.88581267727621</v>
       </c>
       <c r="N8" t="n">
-        <v>41.54738787119602</v>
+        <v>41.54738787119567</v>
       </c>
       <c r="O8" t="n">
-        <v>39.23202022155704</v>
+        <v>39.23202022155672</v>
       </c>
       <c r="P8" t="n">
-        <v>33.48362159423214</v>
+        <v>33.48362159423186</v>
       </c>
       <c r="Q8" t="n">
-        <v>25.1448053576317</v>
+        <v>25.14480535763149</v>
       </c>
       <c r="R8" t="n">
-        <v>14.62654563133968</v>
+        <v>14.62654563133956</v>
       </c>
       <c r="S8" t="n">
-        <v>5.305990226639651</v>
+        <v>5.305990226639607</v>
       </c>
       <c r="T8" t="n">
-        <v>1.019285670526168</v>
+        <v>1.01928567052616</v>
       </c>
       <c r="U8" t="n">
-        <v>0.01862772213411614</v>
+        <v>0.01862772213411599</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1245838750986318</v>
+        <v>0.1245838750986308</v>
       </c>
       <c r="H9" t="n">
-        <v>1.203217951610471</v>
+        <v>1.203217951610461</v>
       </c>
       <c r="I9" t="n">
-        <v>4.289400962825701</v>
+        <v>4.289400962825666</v>
       </c>
       <c r="J9" t="n">
-        <v>11.77044409429662</v>
+        <v>11.77044409429652</v>
       </c>
       <c r="K9" t="n">
-        <v>20.11756372590495</v>
+        <v>20.11756372590478</v>
       </c>
       <c r="L9" t="n">
-        <v>27.05054709104285</v>
+        <v>27.05054709104262</v>
       </c>
       <c r="M9" t="n">
-        <v>31.56671256336824</v>
+        <v>31.56671256336798</v>
       </c>
       <c r="N9" t="n">
-        <v>32.40218951523583</v>
+        <v>32.40218951523556</v>
       </c>
       <c r="O9" t="n">
-        <v>29.64167312489246</v>
+        <v>29.64167312489221</v>
       </c>
       <c r="P9" t="n">
-        <v>23.79005593879049</v>
+        <v>23.7900559387903</v>
       </c>
       <c r="Q9" t="n">
-        <v>15.90302237223939</v>
+        <v>15.90302237223926</v>
       </c>
       <c r="R9" t="n">
-        <v>7.735128666211548</v>
+        <v>7.735128666211484</v>
       </c>
       <c r="S9" t="n">
-        <v>2.314090837906603</v>
+        <v>2.314090837906584</v>
       </c>
       <c r="T9" t="n">
-        <v>0.502160443928257</v>
+        <v>0.5021604439282529</v>
       </c>
       <c r="U9" t="n">
-        <v>0.008196307572278412</v>
+        <v>0.008196307572278346</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1044469358390888</v>
+        <v>0.1044469358390879</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9286282113693537</v>
+        <v>0.9286282113693461</v>
       </c>
       <c r="I10" t="n">
-        <v>3.141004215960962</v>
+        <v>3.141004215960936</v>
       </c>
       <c r="J10" t="n">
-        <v>7.384398363823577</v>
+        <v>7.384398363823516</v>
       </c>
       <c r="K10" t="n">
-        <v>12.13483490930504</v>
+        <v>12.13483490930494</v>
       </c>
       <c r="L10" t="n">
-        <v>15.52841080647689</v>
+        <v>15.52841080647677</v>
       </c>
       <c r="M10" t="n">
-        <v>16.37253195157643</v>
+        <v>16.3725319515763</v>
       </c>
       <c r="N10" t="n">
-        <v>15.98322973617621</v>
+        <v>15.98322973617608</v>
       </c>
       <c r="O10" t="n">
-        <v>14.76309962205594</v>
+        <v>14.76309962205582</v>
       </c>
       <c r="P10" t="n">
-        <v>12.63238213093851</v>
+        <v>12.63238213093841</v>
       </c>
       <c r="Q10" t="n">
-        <v>8.746006600125881</v>
+        <v>8.74600660012581</v>
       </c>
       <c r="R10" t="n">
-        <v>4.696314042364846</v>
+        <v>4.696314042364807</v>
       </c>
       <c r="S10" t="n">
-        <v>1.820225236395756</v>
+        <v>1.820225236395741</v>
       </c>
       <c r="T10" t="n">
-        <v>0.4462732713124702</v>
+        <v>0.4462732713124665</v>
       </c>
       <c r="U10" t="n">
-        <v>0.005697105591223032</v>
+        <v>0.005697105591222985</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31987,43 +31987,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32072,40 +32072,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32160,16 +32160,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32178,16 +32178,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H17" t="n">
         <v>44.86703772844668</v>
@@ -32233,40 +32233,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T17" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,46 +32303,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H18" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q18" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32385,43 +32385,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L19" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P19" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q19" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U19" t="n">
         <v>0.1071911508780295</v>
@@ -33023,7 +33023,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H32" t="n">
         <v>44.86703772844668</v>
@@ -33418,40 +33418,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J32" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R32" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T32" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U32" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,46 +33488,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H33" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O33" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R33" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33570,43 +33570,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H34" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K34" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M34" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P34" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q34" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U34" t="n">
         <v>0.1071911508780295</v>
@@ -33743,7 +33743,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N36" t="n">
         <v>609.6478166837925</v>
@@ -33971,7 +33971,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026436</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
@@ -33992,7 +33992,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34208,7 +34208,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026436</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
@@ -34445,7 +34445,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>92.55355323165877</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K13" t="n">
         <v>253.0227961629121</v>
@@ -35577,7 +35577,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N13" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O13" t="n">
         <v>349.3282668412323</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>92.55355323165877</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K16" t="n">
         <v>253.0227961629121</v>
@@ -35811,7 +35811,7 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M16" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N16" t="n">
         <v>391.8320827861326</v>
@@ -35820,7 +35820,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P16" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q16" t="n">
         <v>125.3693751564862</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N17" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,25 +35960,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597691</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q18" t="n">
         <v>159.2338966127272</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>74.49229848142275</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K19" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
-        <v>319.7573721701981</v>
+        <v>348.6712540385543</v>
       </c>
       <c r="M19" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N19" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O19" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36279,10 +36279,10 @@
         <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
-        <v>234.9615414126761</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
-        <v>319.7573721701981</v>
+        <v>348.6712540385547</v>
       </c>
       <c r="M22" t="n">
         <v>347.6333793934838</v>
@@ -36364,7 +36364,7 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>937.6805819743333</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
         <v>552.3018354129115</v>
@@ -36373,13 +36373,13 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>541.552975850524</v>
       </c>
       <c r="Q23" t="n">
-        <v>272.8572388236522</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36528,13 +36528,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>331.2670120909964</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789366</v>
+        <v>107.3081204062504</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36604,7 +36604,7 @@
         <v>988.4346493230593</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>827.1370117794536</v>
       </c>
       <c r="O26" t="n">
         <v>508.0530008882191</v>
@@ -36613,10 +36613,10 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
-        <v>459.9130612972791</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597723</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
@@ -36835,10 +36835,10 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M29" t="n">
-        <v>988.4346493230593</v>
+        <v>845.6086111391511</v>
       </c>
       <c r="N29" t="n">
         <v>552.3018354129115</v>
@@ -36850,10 +36850,10 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R29" t="n">
-        <v>122.1333842488621</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K31" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L31" t="n">
         <v>366.7325087887907</v>
@@ -36999,7 +36999,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N31" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O31" t="n">
         <v>349.3282668412323</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265653</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302269</v>
+        <v>941.4711175181193</v>
       </c>
       <c r="N32" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P32" t="n">
-        <v>586.6502928476767</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636243</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,25 +37145,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
         <v>159.2338966127272</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K34" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L34" t="n">
         <v>366.7325087887907</v>
@@ -37239,13 +37239,13 @@
         <v>391.8320827861327</v>
       </c>
       <c r="O34" t="n">
-        <v>349.3282668412324</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P34" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637028</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3693751564858</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37321,13 +37321,13 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193724</v>
       </c>
       <c r="Q35" t="n">
         <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222526</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37391,7 +37391,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N36" t="n">
         <v>478.3061046004592</v>
@@ -37546,7 +37546,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923334</v>
       </c>
       <c r="M38" t="n">
         <v>538.9211158302268</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597689</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
@@ -37640,7 +37640,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37801,7 +37801,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222526</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597691</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597691</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
